--- a/biology/Zoologie/Jardin_des_papillons/Jardin_des_papillons.xlsx
+++ b/biology/Zoologie/Jardin_des_papillons/Jardin_des_papillons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin des papillons est un insectarium avec des papillons à Grevenmacher, au Luxembourg, dans la rue de Trèves, qui a une superficie totale d'environ 600 m2[1].
-Le jardin a été ouvert en 1989 par le domaine Bernard-Massard et géré par la famille Clasen. En 2011, il est repris par le groupe elisabeth en laissant la gestion à sa filiale Yolande Coop en tant qu'atelier protégé avec 6 emplois pour personnes handicapées. En 2013 le Jardin des Papillons entame une modernisation complète de ses bâtiments[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin des papillons est un insectarium avec des papillons à Grevenmacher, au Luxembourg, dans la rue de Trèves, qui a une superficie totale d'environ 600 m2.
+Le jardin a été ouvert en 1989 par le domaine Bernard-Massard et géré par la famille Clasen. En 2011, il est repris par le groupe elisabeth en laissant la gestion à sa filiale Yolande Coop en tant qu'atelier protégé avec 6 emplois pour personnes handicapées. En 2013 le Jardin des Papillons entame une modernisation complète de ses bâtiments.
 </t>
         </is>
       </c>
